--- a/public/data/profit/profit_table_cote_d_ivoire.xlsx
+++ b/public/data/profit/profit_table_cote_d_ivoire.xlsx
@@ -1275,43 +1275,43 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>305.46</v>
+        <v>259</v>
       </c>
       <c r="G2" t="n">
-        <v>-171.34</v>
+        <v>-75.52</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>-184.34</v>
+        <v>-118.13</v>
       </c>
       <c r="J2" t="n">
-        <v>-255.84</v>
+        <v>-115.74</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>385.91</v>
+        <v>340.13</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>-163.55</v>
+        <v>-35.78</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>-283.12</v>
+        <v>-176.26</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>-313.48</v>
+        <v>-195.42</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.6</v>
+        <v>113.55</v>
       </c>
       <c r="V2" t="n">
-        <v>-118.64</v>
+        <v>98.49</v>
       </c>
       <c r="W2" t="n">
-        <v>-317.68</v>
+        <v>-197.65</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>-185.05</v>
+        <v>-21.02</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
@@ -1355,31 +1355,31 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2339.92</v>
+        <v>965.28</v>
       </c>
       <c r="G3" t="n">
-        <v>-181.04</v>
+        <v>14.45</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-287.19</v>
+        <v>-127.85</v>
       </c>
       <c r="J3" t="n">
-        <v>-390.78</v>
+        <v>-237.61</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2864.97</v>
+        <v>1252.17</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-192.52</v>
+        <v>-99.16</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1391,28 +1391,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-514.29</v>
+        <v>-363.68</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>-498.03</v>
+        <v>-401.38</v>
       </c>
       <c r="U3" t="n">
-        <v>1072.17</v>
+        <v>579.27</v>
       </c>
       <c r="V3" t="n">
-        <v>-81.16</v>
+        <v>142.75</v>
       </c>
       <c r="W3" t="n">
-        <v>-355.07</v>
+        <v>-255.42</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>-37.13</v>
+        <v>123.04</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
@@ -1435,31 +1435,31 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1643.82</v>
+        <v>647.88</v>
       </c>
       <c r="G4" t="n">
-        <v>-99.58</v>
+        <v>82.85</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-223.14</v>
+        <v>-127.63</v>
       </c>
       <c r="J4" t="n">
-        <v>-280.79</v>
+        <v>-196.24</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2195.3</v>
+        <v>898.26</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>-121.01</v>
+        <v>-29.79</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1471,28 +1471,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>-364.7</v>
+        <v>-304.28</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-366.66</v>
+        <v>-293.15</v>
       </c>
       <c r="U4" t="n">
-        <v>687.42</v>
+        <v>356.01</v>
       </c>
       <c r="V4" t="n">
-        <v>-22.71</v>
+        <v>213</v>
       </c>
       <c r="W4" t="n">
-        <v>-249.75</v>
+        <v>-163.93</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>-25.69</v>
+        <v>133.63</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
@@ -1515,31 +1515,31 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>5901.64</v>
+        <v>1185.87</v>
       </c>
       <c r="G5" t="n">
-        <v>-83.41</v>
+        <v>123.36</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-425.34</v>
+        <v>-234.11</v>
       </c>
       <c r="J5" t="n">
-        <v>-455.82</v>
+        <v>-317.97</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>7528.39</v>
+        <v>1555.84</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>508.7</v>
+        <v>348.76</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -1551,28 +1551,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>-731.14</v>
+        <v>-601.49</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>-615.68</v>
+        <v>-534.55</v>
       </c>
       <c r="U5" t="n">
-        <v>2668.35</v>
+        <v>744.21</v>
       </c>
       <c r="V5" t="n">
-        <v>214.71</v>
+        <v>435.33</v>
       </c>
       <c r="W5" t="n">
-        <v>-51.14</v>
+        <v>21.93</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>174.98</v>
+        <v>337.93</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
@@ -1595,64 +1595,64 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>800.26</v>
+        <v>515.66</v>
       </c>
       <c r="G6" t="n">
-        <v>-156.76</v>
+        <v>-37.48</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-168.34</v>
+        <v>-73.79</v>
       </c>
       <c r="J6" t="n">
-        <v>-268.28</v>
+        <v>-140.97</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1093.35</v>
+        <v>693.96</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>-201.32</v>
+        <v>-93.78</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>-326.89</v>
+        <v>-220.61</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-319.8</v>
+        <v>-203.38</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>-292.7</v>
+        <v>-202.89</v>
       </c>
       <c r="U6" t="n">
-        <v>49.02</v>
+        <v>150.86</v>
       </c>
       <c r="V6" t="n">
-        <v>-82.99</v>
+        <v>218.94</v>
       </c>
       <c r="W6" t="n">
-        <v>-302.12</v>
+        <v>-197.25</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>-107.65</v>
+        <v>54.67</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
@@ -1675,31 +1675,31 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>800.88</v>
+        <v>523.1</v>
       </c>
       <c r="G7" t="n">
-        <v>-139.25</v>
+        <v>-4.31</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-159.22</v>
+        <v>-56.64</v>
       </c>
       <c r="J7" t="n">
-        <v>-241.94</v>
+        <v>-105.39</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1113.31</v>
+        <v>734.08</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.35</v>
+        <v>77.26</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>-304.47</v>
+        <v>-179.7</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1720,19 +1720,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>163.56</v>
+        <v>233.74</v>
       </c>
       <c r="V7" t="n">
-        <v>-85.91</v>
+        <v>149.79</v>
       </c>
       <c r="W7" t="n">
-        <v>-257.24</v>
+        <v>-147.68</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>-77.05</v>
+        <v>92.07</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
@@ -1755,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>-8.96</v>
+        <v>17.5</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1767,52 +1767,52 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>-16.8</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>-15.16</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>6.18</v>
+        <v>46.66</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>-31.2</v>
+        <v>-2.43</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>-40.6</v>
+        <v>-33.02</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>-17.8</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>-46.14</v>
+        <v>-49.82</v>
       </c>
       <c r="U8" t="n">
-        <v>-7.64</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>-38.4</v>
+        <v>-29.83</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>-16.62</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
@@ -1835,10 +1835,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>-37.49</v>
+        <v>2.3</v>
       </c>
       <c r="G9" t="n">
-        <v>-44.15</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1847,52 +1847,52 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-30.85</v>
+        <v>-23.79</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>-4.71</v>
+        <v>37.73</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>-61.53</v>
+        <v>-14.12</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>-70.05</v>
+        <v>-33.28</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>-31.83</v>
+        <v>-39.05</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>-75.44</v>
+        <v>-44.99</v>
       </c>
       <c r="U9" t="n">
-        <v>-49.49</v>
+        <v>4.17</v>
       </c>
       <c r="V9" t="n">
-        <v>-41.65</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>-65.82</v>
+        <v>-23.7</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>-27.5</v>
+        <v>18.03</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
@@ -1915,64 +1915,64 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>29.37</v>
+        <v>74.81</v>
       </c>
       <c r="G10" t="n">
-        <v>-57.35</v>
+        <v>-1.37</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-66.01</v>
+        <v>-53.17</v>
       </c>
       <c r="J10" t="n">
-        <v>-88.57</v>
+        <v>-100.84</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>58.96</v>
+        <v>109.93</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>-89.88</v>
+        <v>-89.27</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>-24.12</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>-102.38</v>
+        <v>-143.44</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>-239.91</v>
+        <v>-190.4</v>
       </c>
       <c r="U10" t="n">
-        <v>-40.92</v>
+        <v>19.91</v>
       </c>
       <c r="V10" t="n">
-        <v>-48.1</v>
+        <v>45.11</v>
       </c>
       <c r="W10" t="n">
-        <v>-98.78</v>
+        <v>-109.45</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>-53.23</v>
+        <v>9.28</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
@@ -1995,64 +1995,64 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>265.53</v>
+        <v>258.37</v>
       </c>
       <c r="G11" t="n">
-        <v>-105.5</v>
+        <v>-40.11</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-115.06</v>
+        <v>-73.05</v>
       </c>
       <c r="J11" t="n">
-        <v>-199.96</v>
+        <v>-138.38</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>363.68</v>
+        <v>349.61</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-202.67</v>
+        <v>-143.13</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>-33.68</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>-236.14</v>
+        <v>-194.82</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-470.6</v>
+        <v>-372.11</v>
       </c>
       <c r="U11" t="n">
-        <v>35.75</v>
+        <v>141.96</v>
       </c>
       <c r="V11" t="n">
-        <v>-74.54</v>
+        <v>62.97</v>
       </c>
       <c r="W11" t="n">
-        <v>-219.3</v>
+        <v>-164.05</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-98.53</v>
+        <v>22.09</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-49.2</v>
+        <v>-40.76</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -2087,52 +2087,52 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>-4.08</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>-46.19</v>
+        <v>-31.67</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.56</v>
+        <v>-16.56</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>-31.47</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>-4.14</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>-58.31</v>
+        <v>-22.81</v>
       </c>
       <c r="U12" t="n">
-        <v>-32.41</v>
+        <v>-8.48</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>-34.94</v>
+        <v>-18.46</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>-3.95</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
         <v>0</v>
@@ -2155,64 +2155,64 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-86.3</v>
+        <v>-34.69</v>
       </c>
       <c r="G13" t="n">
-        <v>-69.59</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-69.71</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-96.21</v>
+        <v>-69.35</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-52.42</v>
+        <v>1.05</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-149.9</v>
+        <v>-99.53</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-166.28</v>
+        <v>-91.25</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-101.3</v>
+        <v>-87.81</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-170.37</v>
+        <v>-132.49</v>
       </c>
       <c r="U13" t="n">
-        <v>-117.67</v>
+        <v>-38.34</v>
       </c>
       <c r="V13" t="n">
-        <v>-68.14</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-154.19</v>
+        <v>-106.74</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-83.99</v>
+        <v>-28.93</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
@@ -2235,64 +2235,64 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>48.12</v>
+        <v>95.57</v>
       </c>
       <c r="G14" t="n">
-        <v>-70.1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-70.7</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-119.21</v>
+        <v>-91.34</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>69.99</v>
+        <v>117.6</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>-155.44</v>
+        <v>-104.79</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>-173.78</v>
+        <v>-149.11</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>-133.44</v>
+        <v>-121.88</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-200.22</v>
+        <v>-168.24</v>
       </c>
       <c r="U14" t="n">
-        <v>-71.65</v>
+        <v>10.81</v>
       </c>
       <c r="V14" t="n">
-        <v>-63.95</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-174.08</v>
+        <v>-130.67</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-88.99</v>
+        <v>-32.72</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>-61.9</v>
+        <v>-24.22</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -2327,19 +2327,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>-27.34</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>-58.05</v>
+        <v>-20.66</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>-80.95</v>
+        <v>-57.75</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -2351,28 +2351,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>-28.24</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>-89.9</v>
+        <v>-76.01</v>
       </c>
       <c r="U15" t="n">
-        <v>-65.18</v>
+        <v>-22.27</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>-81.93</v>
+        <v>-60.02</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>-24.91</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
@@ -2395,64 +2395,64 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>171.58</v>
+        <v>156.38</v>
       </c>
       <c r="G16" t="n">
-        <v>-115.62</v>
+        <v>-40.23</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-129.47</v>
+        <v>-74.49</v>
       </c>
       <c r="J16" t="n">
-        <v>-147.27</v>
+        <v>-116.65</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>249.56</v>
+        <v>227.63</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-41.89</v>
+        <v>47.17</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>-91.7</v>
+        <v>-69.65</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-180.71</v>
+        <v>-185.45</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-125.51</v>
+        <v>-68.91</v>
       </c>
       <c r="U16" t="n">
-        <v>2.2</v>
+        <v>76.17</v>
       </c>
       <c r="V16" t="n">
-        <v>-60</v>
+        <v>117.4</v>
       </c>
       <c r="W16" t="n">
-        <v>-159.03</v>
+        <v>-117.07</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>-60.09</v>
+        <v>62.03</v>
       </c>
       <c r="Z16" t="n">
         <v>0</v>
@@ -2475,43 +2475,43 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>710.07</v>
+        <v>479.19</v>
       </c>
       <c r="G17" t="n">
-        <v>-209.98</v>
+        <v>-82.93</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-237.94</v>
+        <v>-131.98</v>
       </c>
       <c r="J17" t="n">
-        <v>-330.1</v>
+        <v>-187.93</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>883.74</v>
+        <v>625.27</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-132.82</v>
+        <v>-1.86</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>-375.38</v>
+        <v>-259.22</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>-420.69</v>
+        <v>-300.56</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -2520,19 +2520,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>190.72</v>
+        <v>276.54</v>
       </c>
       <c r="V17" t="n">
-        <v>-111.49</v>
+        <v>96.67</v>
       </c>
       <c r="W17" t="n">
-        <v>-378.04</v>
+        <v>-249.76</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-188.68</v>
+        <v>-11.64</v>
       </c>
       <c r="Z17" t="n">
         <v>0</v>
@@ -2555,64 +2555,64 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>975.96</v>
+        <v>518.8</v>
       </c>
       <c r="G18" t="n">
-        <v>-174.58</v>
+        <v>-35.15</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-195.7</v>
+        <v>-76.19</v>
       </c>
       <c r="J18" t="n">
-        <v>-294.1</v>
+        <v>-164.87</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1290.25</v>
+        <v>720.88</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-26.37</v>
+        <v>73.5</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>-342.59</v>
+        <v>-240.45</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>-365.97</v>
+        <v>-244.99</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>-303.93</v>
+        <v>-214.93</v>
       </c>
       <c r="U18" t="n">
-        <v>235.68</v>
+        <v>231.46</v>
       </c>
       <c r="V18" t="n">
-        <v>-92.47</v>
+        <v>125.83</v>
       </c>
       <c r="W18" t="n">
-        <v>-335.52</v>
+        <v>-235.41</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>-77.69</v>
+        <v>77.32</v>
       </c>
       <c r="Z18" t="n">
         <v>0</v>
@@ -2635,31 +2635,31 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>3581.2</v>
+        <v>638.45</v>
       </c>
       <c r="G19" t="n">
-        <v>-250.61</v>
+        <v>-88.61</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-307.18</v>
+        <v>-161.57</v>
       </c>
       <c r="J19" t="n">
-        <v>-423.08</v>
+        <v>-282.89</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>4512.26</v>
+        <v>924.13</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>-139.02</v>
+        <v>-83.28</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2671,28 +2671,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>-555.74</v>
+        <v>-422.35</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>-540.99</v>
+        <v>-450.99</v>
       </c>
       <c r="U19" t="n">
-        <v>1721.64</v>
+        <v>279.05</v>
       </c>
       <c r="V19" t="n">
-        <v>-90.95</v>
+        <v>117.13</v>
       </c>
       <c r="W19" t="n">
-        <v>-269.9</v>
+        <v>-173.5</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>-89.77</v>
+        <v>66.54</v>
       </c>
       <c r="Z19" t="n">
         <v>0</v>
@@ -2715,31 +2715,31 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>235.3</v>
+        <v>131.44</v>
       </c>
       <c r="G20" t="n">
-        <v>-161.41</v>
+        <v>-59.3</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-185.18</v>
+        <v>-119.32</v>
       </c>
       <c r="J20" t="n">
-        <v>-244.81</v>
+        <v>-195.92</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>360.67</v>
+        <v>225.11</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>-222.75</v>
+        <v>-149.24</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -2751,28 +2751,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>-281.44</v>
+        <v>-261.05</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-349.27</v>
+        <v>-265.59</v>
       </c>
       <c r="U20" t="n">
-        <v>-24.47</v>
+        <v>30.45</v>
       </c>
       <c r="V20" t="n">
-        <v>-122.69</v>
+        <v>41.55</v>
       </c>
       <c r="W20" t="n">
-        <v>-271.37</v>
+        <v>-216.26</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-137.28</v>
+        <v>-3.19</v>
       </c>
       <c r="Z20" t="n">
         <v>0</v>
@@ -2795,64 +2795,64 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>327.64</v>
+        <v>103.17</v>
       </c>
       <c r="G21" t="n">
-        <v>-242.93</v>
+        <v>-61.08</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-292.54</v>
+        <v>-130</v>
       </c>
       <c r="J21" t="n">
-        <v>-298.81</v>
+        <v>-272.86</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>523.94</v>
+        <v>234.3</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>-197.44</v>
+        <v>-126.74</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>-107.26</v>
+        <v>-51.97</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>-350.21</v>
+        <v>-369.77</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>-335.94</v>
+        <v>-320.66</v>
       </c>
       <c r="U21" t="n">
-        <v>187.44</v>
+        <v>140.28</v>
       </c>
       <c r="V21" t="n">
-        <v>-154.92</v>
+        <v>59.88</v>
       </c>
       <c r="W21" t="n">
-        <v>-259.91</v>
+        <v>-217.51</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>-141.69</v>
+        <v>4.19</v>
       </c>
       <c r="Z21" t="n">
         <v>0</v>
@@ -2875,64 +2875,64 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-63.58</v>
+        <v>-15.86</v>
       </c>
       <c r="G22" t="n">
-        <v>-63.79</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-64.04</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>-82.82</v>
+        <v>-62.86</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>-51.9</v>
+        <v>-0.81</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>-86.34</v>
+        <v>-89.1</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>-50.25</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>-88.17</v>
+        <v>-84.13</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>-142.98</v>
+        <v>-136.15</v>
       </c>
       <c r="U22" t="n">
-        <v>-67.01</v>
+        <v>-22.46</v>
       </c>
       <c r="V22" t="n">
-        <v>-63.39</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>-88.08</v>
+        <v>-97.53</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>-69.23</v>
+        <v>-8.25</v>
       </c>
       <c r="Z22" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-34.34</v>
+        <v>-10.35</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2967,52 +2967,52 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>-19.09</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>-28.55</v>
+        <v>2.32</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.61</v>
+        <v>-37.76</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>-87.96</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>-20.02</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>-91.39</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>-32.68</v>
+        <v>-27</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>-35.28</v>
+        <v>-42.2</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>-16.95</v>
+        <v>0</v>
       </c>
       <c r="Z23" t="n">
         <v>0</v>
@@ -3035,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>2.37</v>
+        <v>47.62</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -3047,52 +3047,52 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>-22.31</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>11.57</v>
+        <v>72.73</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>-25.25</v>
+        <v>-1.88</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>-31.99</v>
+        <v>-32.15</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>-22.87</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>-32.73</v>
+        <v>-34.53</v>
       </c>
       <c r="U24" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>-28.46</v>
+        <v>-17.33</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="Z24" t="n">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>-13.2</v>
+        <v>3.19</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -3127,52 +3127,52 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>-19.32</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>-8.71</v>
+        <v>19.01</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>-18.38</v>
+        <v>-20.63</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>-21.62</v>
+        <v>-54.74</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>-20.28</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>-21.72</v>
+        <v>-54.76</v>
       </c>
       <c r="U25" t="n">
-        <v>-10.87</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>-20.19</v>
+        <v>-38.94</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>-16.35</v>
+        <v>0</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-10.9</v>
+        <v>-24.3</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -3213,19 +3213,19 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>-9.88</v>
+        <v>-18.96</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>-10.82</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>-11.68</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-11.68</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>-4.02</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>-11.36</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>-10.82</v>
+        <v>-58.35</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -3293,19 +3293,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>-10.65</v>
+        <v>-59.25</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.03</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>-32.77</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -3317,16 +3317,16 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>-34.3</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>-30.99</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>-33.82</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -3355,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-24.95</v>
+        <v>-26.81</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -3367,52 +3367,52 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>-5.87</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-22.06</v>
+        <v>-17.32</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>-24.18</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>-24.57</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>-5.91</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>-24.55</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>-4.92</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>-5.78</v>
+        <v>0</v>
       </c>
       <c r="Z28" t="n">
         <v>0</v>
@@ -3435,64 +3435,64 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-91.23</v>
+        <v>-31.22</v>
       </c>
       <c r="G29" t="n">
-        <v>-23.05</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-22.97</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>-75.54</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>-32.67</v>
+        <v>29.12</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>-85.71</v>
+        <v>-38.46</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>-101.01</v>
+        <v>-70.98</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>-79.07</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-112.09</v>
+        <v>-56.7</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>-22.19</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-87.67</v>
+        <v>-41.66</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>-65.77</v>
+        <v>0</v>
       </c>
       <c r="Z29" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>-20.57</v>
+        <v>8.39</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -3527,52 +3527,52 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>-13.1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-14.87</v>
+        <v>24.81</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>-20.7</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>-22.27</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>-13.36</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>-23.05</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>-15.11</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>-21.78</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>-12.46</v>
+        <v>0</v>
       </c>
       <c r="Z30" t="n">
         <v>0</v>
@@ -3595,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>-51.9</v>
+        <v>-7.08</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3613,19 +3613,19 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-43.13</v>
+        <v>3.71</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-35.58</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>-34.91</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -3637,16 +3637,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>-36.54</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>-37.23</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>-36.08</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-27.3</v>
+        <v>-19.92</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3693,13 +3693,13 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-27.59</v>
+        <v>-22.64</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>-16.9</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>-16.67</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>-17.25</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>-41.99</v>
+        <v>-59.92</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3773,19 +3773,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-35.39</v>
+        <v>-36.3</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>-40.01</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>-42.64</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -3797,16 +3797,16 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>-42.68</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>-20.25</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>-41.66</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3835,64 +3835,64 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-94.09</v>
+        <v>-48.24</v>
       </c>
       <c r="G34" t="n">
-        <v>-48.5</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-49.75</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>-95.84</v>
+        <v>-64.25</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-69.58</v>
+        <v>-17.79</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-144.89</v>
+        <v>-73.4</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>-164.02</v>
+        <v>-104.79</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>-100.52</v>
+        <v>-84.93</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>-170.39</v>
+        <v>-115.47</v>
       </c>
       <c r="U34" t="n">
-        <v>-141.09</v>
+        <v>-28</v>
       </c>
       <c r="V34" t="n">
-        <v>-47.85</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>-157.93</v>
+        <v>-94.4</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>-83.46</v>
+        <v>-7.37</v>
       </c>
       <c r="Z34" t="n">
         <v>0</v>
